--- a/src/app/application/synchronizer/admin/Menu.xlsx
+++ b/src/app/application/synchronizer/admin/Menu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Меню</t>
   </si>
@@ -186,13 +186,16 @@
   </si>
   <si>
     <t>16a2fe7e-284a-4e6d-addf-da4cdd178c29</t>
+  </si>
+  <si>
+    <t>15.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -205,6 +208,13 @@
       <color theme="1"/>
       <name val="Montserrat"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Mosent"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -214,7 +224,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -237,18 +247,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -262,6 +312,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,17 +539,17 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="50" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="77.7109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="77.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -506,9 +563,10 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="2"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2"/>
@@ -518,11 +576,12 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
@@ -530,17 +589,17 @@
       <c r="C3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="10">
         <v>182.99</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" s="15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1">
@@ -549,16 +608,16 @@
       <c r="C4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="10">
         <v>215.36</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="13">
         <v>0</v>
       </c>
     </row>
@@ -568,17 +627,17 @@
       <c r="C5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="10">
         <v>265.57</v>
       </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="G5" s="13">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -589,11 +648,12 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
@@ -601,16 +661,16 @@
       <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="9">
         <v>166.47</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="13">
         <v>0</v>
       </c>
     </row>
@@ -620,16 +680,16 @@
       <c r="C8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="9">
         <v>168.25</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="13">
         <v>0</v>
       </c>
     </row>
@@ -639,21 +699,21 @@
       <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="9">
         <v>132.88</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -662,9 +722,10 @@
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="2"/>
@@ -674,11 +735,12 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="2"/>
@@ -686,16 +748,16 @@
       <c r="C12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="9">
         <v>2700.79</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="13">
         <v>0</v>
       </c>
     </row>
@@ -705,16 +767,16 @@
       <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="9">
         <v>3100.33</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="13">
         <v>0</v>
       </c>
     </row>
@@ -724,16 +786,16 @@
       <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="9">
         <v>1850.42</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="13">
         <v>0</v>
       </c>
     </row>
@@ -745,11 +807,12 @@
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="2"/>
@@ -757,16 +820,16 @@
       <c r="C16" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="9">
         <v>420.78</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="13">
         <v>0</v>
       </c>
     </row>
@@ -776,16 +839,16 @@
       <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="9">
         <v>440.11</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="13">
         <v>0</v>
       </c>
     </row>
@@ -795,21 +858,23 @@
       <c r="C18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="9">
         <v>520.08000000000004</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="G20" s="14"/>
+    </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:7" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:7" ht="15.75" customHeight="1"/>
@@ -1792,5 +1857,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>